--- a/molecules-lists/4_pdac_drugs.xlsx
+++ b/molecules-lists/4_pdac_drugs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\DATA\NiCEMSI\People\Chelsea\Metabolite Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\2019_Scripts for Data Processing\molecules-lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB5E57-5FA3-49B1-AE79-0448662C6215}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="0" windowWidth="23040" windowHeight="9405"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference_List" sheetId="3" r:id="rId1"/>
@@ -17,10 +18,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reference_List!$A$1:$A$100</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -44,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,21 +72,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -87,26 +88,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -117,19 +103,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -412,83 +386,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8">
-        <v>454.21286700000002</v>
+      <c r="B1">
+        <v>454.21286698400002</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>456.98567200000002</v>
+      <c r="B2">
+        <v>456.00000889</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
-        <v>462.23793899999998</v>
+      <c r="B3">
+        <v>462.23793888</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
-        <v>476.09997099999998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>476.09996762399999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="5"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="5"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
-      <c r="B96" s="5"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
-      <c r="B97" s="5"/>
-    </row>
-    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="5"/>
-    </row>
-    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A1:B114">
-    <sortCondition ref="B1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/molecules-lists/4_pdac_drugs.xlsx
+++ b/molecules-lists/4_pdac_drugs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\2019_Scripts for Data Processing\molecules-lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\2019_Scripts for Data Processing\adhoc-data-processing-pipeline\molecules-lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB5E57-5FA3-49B1-AE79-0448662C6215}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73425F0C-EC22-4701-A34E-BE507ADB016F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="2910" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference_List" sheetId="3" r:id="rId1"/>
@@ -52,6 +52,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,15 +77,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,11 +99,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -103,10 +129,22 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,73 +425,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="9">
         <v>454.21286698400002</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <v>456.00000889</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>462.23793888</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>476.09996762399999</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="6"/>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
+      <c r="B100" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B114">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
